--- a/experiment result/64_0.7_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.7_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01868200574662129</v>
+        <v>0.002603177753950131</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04634230084668768</v>
+        <v>0.003689090894326825</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0461459855353825</v>
+        <v>0.00315996488779518</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04292396219232454</v>
+        <v>0.007198610030414339</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03889948754423065</v>
+        <v>0.007093772028500984</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03329675470137649</v>
+        <v>0.005659046776012217</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03624119022173349</v>
+        <v>0.003440319503540375</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04199340950255859</v>
+        <v>0.007819103170919179</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05319663533867843</v>
+        <v>0.006395964282815632</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03541160303303369</v>
+        <v>0.003569444641293784</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05038993244785572</v>
+        <v>0.009619835878277846</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04606005566015396</v>
+        <v>0.01641679834578313</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03898894385488882</v>
+        <v>0.005363695300945429</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04692648572551912</v>
+        <v>0.003614678718219207</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03306725910551752</v>
+        <v>0.004897430879527984</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03330045186458633</v>
+        <v>0.004315388477524658</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04911690081058726</v>
+        <v>0.01455816150814397</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01573318046493417</v>
+        <v>0.000833375448777321</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03617095840079779</v>
+        <v>0.01088858474584132</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06959397238864315</v>
+        <v>0.01072687145146175</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02548310667330507</v>
+        <v>0.005236440855594499</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03599627144348265</v>
+        <v>0.004673648185222615</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0326897665190593</v>
+        <v>0.00591918491830899</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0186341408429145</v>
+        <v>0.002825295505245698</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01409358447676358</v>
+        <v>0.003688925709798526</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04233056233314951</v>
+        <v>0.006486250465849569</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0444700259822795</v>
+        <v>0.005797180393088054</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02550688742488497</v>
+        <v>0.004270858529200913</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02704151030480827</v>
+        <v>0.005413442545822019</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0393178499057712</v>
+        <v>0.007270873987048112</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01629978904299438</v>
+        <v>0.002629234750944526</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04601981268542907</v>
+        <v>0.00469115301886822</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04424367205330754</v>
+        <v>0.006711106323457337</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04339572263064405</v>
+        <v>0.004340377973491111</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02912951719494839</v>
+        <v>0.004901075973711309</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04069508614843197</v>
+        <v>0.007082422305492039</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03914603733714293</v>
+        <v>0.004357779817106127</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0590261682494256</v>
+        <v>0.008622548120803993</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04149659292371924</v>
+        <v>0.006090368833971465</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04605826805326012</v>
+        <v>0.01122414996730133</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03821776578652335</v>
+        <v>0.007809221938143191</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04206542084107466</v>
+        <v>0.009589701985199721</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04406436510016806</v>
+        <v>0.01254095958207286</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0314411991864649</v>
+        <v>0.00470560039512624</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03673765866704463</v>
+        <v>0.004765458211367647</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04529285811064736</v>
+        <v>0.00510875698319611</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03858778786030242</v>
+        <v>0.004060249907443668</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0214533188160535</v>
+        <v>0.001519733689598975</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04092898948454093</v>
+        <v>0.004253389008455026</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01787238629060769</v>
+        <v>0.002424167016162903</v>
       </c>
     </row>
   </sheetData>
